--- a/linux-kernel/interrupt_time.xlsx
+++ b/linux-kernel/interrupt_time.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>系统定时器 &amp; 时钟中断处理程序</t>
     <rPh sb="0" eb="1">
@@ -72,6 +72,822 @@
     </rPh>
     <rPh sb="17" eb="18">
       <t>cheng xu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高HZ优势：</t>
+    <rPh sb="0" eb="1">
+      <t>gao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>you shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高依赖定时器的调用，poll select的精确度</t>
+    <rPh sb="0" eb="1">
+      <t>ti gao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi lai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ding shi qi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>diao yong</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>de</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>jing que du</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高时间测量，资源随时间消耗测量等的精确度</t>
+    <rPh sb="0" eb="1">
+      <t>ti gao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ce liang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zi yuan</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>sui</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xiao hao</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ce liang</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>jing que du</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高进程调度抢占的准确度</t>
+    <rPh sb="0" eb="1">
+      <t>ti gao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jin cheng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>diao du</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qiang zhan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>d</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhun que du</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高HZ劣势</t>
+    <rPh sb="0" eb="1">
+      <t>gao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lie shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加系统负载</t>
+    <rPh sb="0" eb="1">
+      <t>zeng jai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xi tong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fu zai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Tick </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>就是两次时钟中断的间隔，它等于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>节拍率HZ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分之一秒</t>
+    </r>
+    <rPh sb="5" eb="6">
+      <t>jiu shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>liang ci</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi zhong</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhogn duan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>jian ge</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ta</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>deng yu</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>jie</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>fen zhi</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>miao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Jiffies </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变量记录系统启动以来的总节拍数，启动时候为0，每次时钟中断处理程序就+1</t>
+    </r>
+    <rPh sb="8" eb="9">
+      <t>bian liang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ji lu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xi tong</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>qi dong</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yi lai</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zong</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>jie pai</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>shu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>qi dong</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>shi hou</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>mei ci</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>shi zhong</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>zhong duan</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>chu li</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>cheng xu</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>jiu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>USER_HZ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 用户空间表示，内核提供HZ到用户空间的转换，保证不同HZ下对用户层tick一样</t>
+    </r>
+    <rPh sb="8" eb="9">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>kong jian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>biao shi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>nei he</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ti gong</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>kong jian</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>de</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>zhuan huan</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>bao zheng</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>bu tong</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>dui</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ceng</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>yi yang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>系统定时器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 周期产生中断</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>xi tong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ding shi qi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhou qi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>chan sheng</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhong duan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时钟中断处理程序</t>
+    <rPh sb="0" eb="1">
+      <t>shi zhogn</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhong duan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>chu li</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>cheng xu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>RTC实时时钟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 与cmos集成在一起，统一供电，系统关闭后也能计时，内核启动后读取一次来初始化实时时钟xtime</t>
+    </r>
+    <rPh sb="3" eb="4">
+      <t>shi shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi zhong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ji cheng</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yi qi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>tong yi</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>gong dian</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>xi tong</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>guan bi</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>neng</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ji shi</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>nei he</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>qi dong</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>du qu</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>yi ci</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>lai</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>chu shi hua</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>shi shi</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>shi zhong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取xtime锁</t>
+    <rPh sb="0" eb="1">
+      <t>huo qu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>suo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体系结构相关部分代码</t>
+    <rPh sb="0" eb="1">
+      <t>ti x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie gou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiang guan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bu fen</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dai ma</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要应答则应答</t>
+    <rPh sb="0" eb="1">
+      <t>xu yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ying da</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ying da</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期性用墙上时间更新系统时钟</t>
+    <rPh sb="0" eb="1">
+      <t>zhou qi xing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qiang shang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>geng xin</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xi tong</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shi zhong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用体系结构无关部分tick_periodic</t>
+    <rPh sb="0" eb="1">
+      <t>diao yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ti xi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie gou</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wu guan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bu fen</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tick_periodic执行过程代码</t>
+    <rPh sb="13" eb="14">
+      <t>zhi xing</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>guo cheng</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>dai ma</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给jiffies +1</t>
+    <rPh sb="0" eb="1">
+      <t>gei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行到期的动态定时器</t>
+    <rPh sb="0" eb="1">
+      <t>zhi xing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dao qi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dong tai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ding shi qi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行scheduler_tick函数，进程调度标志更新，以便中断返回后进行重新调度抢占</t>
+    <rPh sb="0" eb="1">
+      <t>zhi xing</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>han shu</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>jin cheng</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>diao du</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>biao zhi</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>geng xin</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>yi bian</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>zhong duan</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>fan hui</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>jin xing</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>chong xin</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>diao du</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>qiang zhan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新资源消耗值，比如当前进程消耗系统世间和用户时间（其中更新时间是根据中断发生时处理器所处模式分类统计的，把上一个节拍全部算给了进程，事实上不精确，因为中间可能发生过中断也被其他进程抢占过。。。）</t>
+    <rPh sb="0" eb="1">
+      <t>geng xin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi yuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xiao hao zhi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bi ru</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dang qian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jin cheng</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xiao hao</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xi tong</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>he</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>qi zhong</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>geng xin</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>gen ju</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>zhong duan fa sheng</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>chu li qi</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>suo chu</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>mo shi</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>fen lei</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>tong ji</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>de</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ba</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>shang yi ge</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>jie pai</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>quan bu</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>suan gei</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>le</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>jin cheng</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>shi shi</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>bu jing que</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>yin wei</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>zhong jian</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ke neng</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>fa sheng</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>guo</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>zhong duan</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ye</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>jin cheng</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>qiang zhan</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>guo</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -186,8 +1002,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1054100" y="571500"/>
-          <a:ext cx="2463801" cy="3327401"/>
+          <a:off x="1054100" y="576943"/>
+          <a:ext cx="2463801" cy="3367315"/>
           <a:chOff x="2190750" y="371475"/>
           <a:chExt cx="2463801" cy="3327401"/>
         </a:xfrm>
@@ -1101,10 +1917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R11"/>
+  <dimension ref="A2:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1122,6 +1938,116 @@
         <v>1</v>
       </c>
     </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C29" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C30" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D31" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D32" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D33" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D35" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C38" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C40" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C42" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C43" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C45" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D46" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E47" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E48" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E49" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E50" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F52" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G53" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G54" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G55" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G56" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/linux-kernel/interrupt_time.xlsx
+++ b/linux-kernel/interrupt_time.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nb/Downloads/backup/linux-kernel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="800" windowWidth="34260" windowHeight="18020"/>
+    <workbookView xWindow="720" yWindow="795" windowWidth="19440" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="clock_int" sheetId="7" r:id="rId1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>系统定时器 &amp; 时钟中断处理程序</t>
     <rPh sb="0" eb="1">
@@ -891,12 +886,124 @@
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>实际时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内核中存储在xtime中，用seq锁来更新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从用户空间获得对应函数是gettimeofday，内核系统调用是sys_gettimeofday</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用法：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct timer_list mytimer;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>init_timer(&amp;mytimer)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置结构的超时时间和触发方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_timer(&amp;my_timer) 启动定时器，应该就是加到链表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>del_timer(&amp;my_timer) 移除定时器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>del_timer_sync(&amp;my_timer)等待执行完再移除，内部有等待睡眠，所以不能在中断上下文执行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时钟中断时，检查遍历定时器链表，然后触发执行（在下半部）。遍历不明智，系统把定时器按照时间分5组，定时器接近时，整组下移，提高搜索性能。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟执行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如设置完硬件状态后需要等待2ms这种需求，例如网卡状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环判断jiffies值超过后继续</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环判断后如果未超时，调用cond_resched方法进行新调度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行调度（只能在进程上下文）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>短延时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忙等待，比如5个节拍之后</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统启动时计算loops_per_jiffies，这个是每个节拍执行了多少条指令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>udelay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mdelay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ndelay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个函数用于精确延时，内部就是进行循环</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>schedule_timeout方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_current_state(TASK_INTERRUPTIBLE)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>schedule_timeout(s*HZ)睡眠s秒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个内部其实就是启动一个定时器，到时候超时函数执行唤醒进程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1002,8 +1109,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1054100" y="576943"/>
-          <a:ext cx="2463801" cy="3367315"/>
+          <a:off x="1066800" y="542925"/>
+          <a:ext cx="2492376" cy="3117851"/>
           <a:chOff x="2190750" y="371475"/>
           <a:chExt cx="2463801" cy="3327401"/>
         </a:xfrm>
@@ -1170,7 +1277,7 @@
               </a:effectLst>
               <a:extLst>
                 <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1274,7 +1381,7 @@
               </a:effectLst>
               <a:extLst>
                 <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                  <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1590,6 +1697,462 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="矩形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1066800" y="9010650"/>
+          <a:ext cx="962025" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Timer_List</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-list_head</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-func</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-param</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-expires</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="矩形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2400300" y="9010650"/>
+          <a:ext cx="962025" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Timer_List</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-list_head</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-func</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-param</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-expires</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="矩形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3714750" y="9020175"/>
+          <a:ext cx="962025" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Timer_List</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-list_head</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-func</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-param</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-expires</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>96838</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直接箭头连接符 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="3"/>
+          <a:endCxn id="21" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2028825" y="9382125"/>
+          <a:ext cx="371475" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直接箭头连接符 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="3"/>
+          <a:endCxn id="22" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3362325" y="9382125"/>
+          <a:ext cx="352425" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1916,141 +2479,283 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:R95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="16384" width="3.33203125" style="1"/>
+    <col min="1" max="16384" width="3.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="R11" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:4">
       <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:4">
       <c r="C30" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:4">
       <c r="D31" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:4">
       <c r="D32" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:5">
       <c r="D33" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:5">
       <c r="C34" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:5">
       <c r="D35" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:5">
       <c r="C38" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:5">
       <c r="C40" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:5">
       <c r="C42" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:5">
       <c r="C43" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:5">
       <c r="C45" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:5">
       <c r="D46" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:5">
       <c r="E47" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:5">
       <c r="E48" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:7">
       <c r="E49" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:7">
       <c r="E50" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:7">
       <c r="F52" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:7">
       <c r="G53" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:7">
       <c r="G54" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:7">
       <c r="G55" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:7">
       <c r="G56" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7">
+      <c r="C58" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7">
+      <c r="C59" s="2"/>
+      <c r="D59" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7">
+      <c r="D60" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7">
+      <c r="C62" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7">
+      <c r="E70" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7">
+      <c r="E72" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7">
+      <c r="G73" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7">
+      <c r="G74" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7">
+      <c r="G75" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7">
+      <c r="G77" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7">
+      <c r="G78" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="3:7">
+      <c r="G79" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="3:7">
+      <c r="C80" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="5:7">
+      <c r="E81" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="5:7">
+      <c r="E82" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="5:7">
+      <c r="F83" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="5:7">
+      <c r="E84" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="5:7">
+      <c r="F85" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="5:7">
+      <c r="E86" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" spans="5:7">
+      <c r="F87" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="5:7">
+      <c r="F88" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" spans="5:7">
+      <c r="F89" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="5:7">
+      <c r="F90" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" spans="5:7">
+      <c r="F91" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="92" spans="5:7">
+      <c r="E92" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="5:7">
+      <c r="F93" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="94" spans="5:7">
+      <c r="F94" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="5:7">
+      <c r="G95" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>